--- a/Use cases et scenarii.xlsx
+++ b/Use cases et scenarii.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Use cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Scénario - Ajouter une image" sheetId="2" r:id="rId2"/>
-    <sheet name="Scénario - Afficher les favorit" sheetId="3" r:id="rId3"/>
+    <sheet name="Scénario - Créer un compte" sheetId="2" r:id="rId2"/>
+    <sheet name="Scénario - Se connnecter" sheetId="3" r:id="rId3"/>
+    <sheet name="Scénario - Ajouter une image" sheetId="4" r:id="rId4"/>
+    <sheet name="Scénario - Aff. les favorits" sheetId="5" r:id="rId5"/>
+    <sheet name="Scénario - Choix cat. à suivre" sheetId="6" r:id="rId6"/>
+    <sheet name="Scénario - Rechercher une image" sheetId="7" r:id="rId7"/>
+    <sheet name="Scénario - Telecharger une ima." sheetId="8" r:id="rId8"/>
+    <sheet name="Scénario - Signialer une image" sheetId="9" r:id="rId9"/>
+    <sheet name="Scénario - s'abonner à un util." sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>Ajouter une image</t>
   </si>
@@ -47,13 +54,463 @@
   </si>
   <si>
     <t>S'abonner à un utilisateur</t>
+  </si>
+  <si>
+    <t>Identifiant + Titre</t>
+  </si>
+  <si>
+    <t>En tant que</t>
+  </si>
+  <si>
+    <t>Je veux</t>
+  </si>
+  <si>
+    <t>Pour</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Condition particulière</t>
+  </si>
+  <si>
+    <t>Réaction</t>
+  </si>
+  <si>
+    <t>Projet C#</t>
+  </si>
+  <si>
+    <t>Visiteur</t>
+  </si>
+  <si>
+    <t>Créer un compte</t>
+  </si>
+  <si>
+    <t>Publier des images</t>
+  </si>
+  <si>
+    <t>Haute</t>
+  </si>
+  <si>
+    <t>Affichage de la page "Register"</t>
+  </si>
+  <si>
+    <t>Remplir le champs</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [Register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Register]</t>
+    </r>
+  </si>
+  <si>
+    <t>Retourne la page "home"</t>
+  </si>
+  <si>
+    <t>Se connnecter</t>
+  </si>
+  <si>
+    <t>Me connecter</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [Login]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Login]</t>
+    </r>
+  </si>
+  <si>
+    <t>Affichage de la page "Login"</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>Que d'autres les voient</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [Account]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Affichage de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Account setting]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[My pictures]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer sur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[My pictures]</t>
+    </r>
+  </si>
+  <si>
+    <t>Retourne la page "My pictures"</t>
+  </si>
+  <si>
+    <t>Retourne la page "Add picture"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Add picture]</t>
+    </r>
+  </si>
+  <si>
+    <t>Ajouter un titre, une image et une description</t>
+  </si>
+  <si>
+    <t>Ajoute l'image et retourne la page "My pictures"</t>
+  </si>
+  <si>
+    <t>Voir mes images préféreées</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [Favorits]</t>
+    </r>
+  </si>
+  <si>
+    <t>Retourne la page "Favorits"</t>
+  </si>
+  <si>
+    <t>Voir des images qui peuvent m'interreser</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [Catégories]</t>
+    </r>
+  </si>
+  <si>
+    <t>Retourne la page "Catégories"</t>
+  </si>
+  <si>
+    <t>Séléctionner/déselectionner des catégories</t>
+  </si>
+  <si>
+    <t>Visiteur / Utilisateur</t>
+  </si>
+  <si>
+    <t>Voir des images que je recherche</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [Rechercher]</t>
+    </r>
+  </si>
+  <si>
+    <t>Le curseur de texte apparait dans "recherche"</t>
+  </si>
+  <si>
+    <t>Ecrire une recherche</t>
+  </si>
+  <si>
+    <t>Affiche le résultat de la recherche</t>
+  </si>
+  <si>
+    <t>avoir l'image en local</t>
+  </si>
+  <si>
+    <r>
+      <t>Cliquer sur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>une image</t>
+    </r>
+  </si>
+  <si>
+    <t>La page "Detail image" apparait</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer sur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Télécharger]</t>
+    </r>
+  </si>
+  <si>
+    <t>L'image se télécharge</t>
+  </si>
+  <si>
+    <t>que l'image disparaisse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer sur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Signialer]</t>
+    </r>
+  </si>
+  <si>
+    <t>L'image est signialée</t>
+  </si>
+  <si>
+    <t>M'abonner à un utilisateur</t>
+  </si>
+  <si>
+    <t>voir les images publiées par un utilisateur</t>
+  </si>
+  <si>
+    <t>Cliquer sur le nom de l'utilisateur qui l'a publiée</t>
+  </si>
+  <si>
+    <t>L'utilisateur apparait</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cliquer sur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Suivre]</t>
+    </r>
+  </si>
+  <si>
+    <t>L'utilisateur est suivi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +518,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,13 +577,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,13 +625,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -139,7 +641,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6766560" y="647700"/>
+          <a:off x="6766560" y="861060"/>
           <a:ext cx="1181100" cy="1653540"/>
           <a:chOff x="6766560" y="647700"/>
           <a:chExt cx="1181100" cy="1630680"/>
@@ -249,13 +751,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -298,13 +800,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1744980</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -347,13 +849,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -396,13 +898,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -412,7 +914,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1783080" y="609600"/>
+          <a:off x="1783080" y="822960"/>
           <a:ext cx="1181100" cy="1653540"/>
           <a:chOff x="6766560" y="647700"/>
           <a:chExt cx="1181100" cy="1630680"/>
@@ -522,13 +1024,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -571,13 +1073,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -620,13 +1122,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>142857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -669,13 +1171,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>107606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -718,13 +1220,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>145706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -767,13 +1269,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>145706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -816,13 +1318,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1744980</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>145706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -836,6 +1338,104 @@
         <a:xfrm flipH="1">
           <a:off x="5707380" y="1265846"/>
           <a:ext cx="1059180" cy="1865974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2964180" y="662940"/>
+          <a:ext cx="1005840" cy="778166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur droit avec flèche 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2964180" y="259080"/>
+          <a:ext cx="998220" cy="1182026"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1127,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:F17"/>
+  <dimension ref="F1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,45 +1738,57 @@
     <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="1" t="s">
+    <row r="1" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="1" t="s">
+    <row r="7" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="1" t="s">
+    <row r="9" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="1" t="s">
+    <row r="11" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="1" t="s">
+    <row r="13" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="1" t="s">
+    <row r="15" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="1" t="s">
+    <row r="17" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1186,26 +1798,1042 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>